--- a/hdcntfunc.xlsx
+++ b/hdcntfunc.xlsx
@@ -25,6 +25,27 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>employe_num</t>
+  </si>
+  <si>
+    <t>employee_name</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>doe</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
     <t>1000</t>
   </si>
   <si>
@@ -35,27 +56,6 @@
   </si>
   <si>
     <t>kavi</t>
-  </si>
-  <si>
-    <t>division</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>employe_num</t>
-  </si>
-  <si>
-    <t>employee_name</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>doe</t>
-  </si>
-  <si>
-    <t>project</t>
   </si>
   <si>
     <t>Tot. Hours</t>
@@ -634,43 +634,43 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="n">
-        <v>841596</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="n">
-        <v>46</v>
-      </c>
-      <c r="G1" t="n">
-        <v>114</v>
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>841596</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
         <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46</v>
+      </c>
+      <c r="G2" t="n">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -694,25 +694,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -758,7 +758,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -873,25 +873,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -952,25 +952,25 @@
     <row r="4" spans="1:10"/>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -996,7 +996,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
         <v>21</v>
@@ -1008,25 +1008,25 @@
     <row r="7" spans="1:10"/>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1243,25 +1243,25 @@
     <row r="17" spans="1:10"/>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="F18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
         <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>10</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -1322,25 +1322,25 @@
     <row r="21" spans="1:10"/>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F22" t="s">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
+      <c r="G22" t="s">
         <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" t="s">
-        <v>10</v>
       </c>
       <c r="H22" t="s">
         <v>11</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1562,25 +1562,25 @@
     <row r="32" spans="1:10"/>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" t="s">
+      <c r="F33" t="s">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
+      <c r="G33" t="s">
         <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -1664,25 +1664,25 @@
     <row r="37" spans="1:10"/>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
         <v>4</v>
       </c>
-      <c r="B38" t="s">
+      <c r="F38" t="s">
         <v>5</v>
       </c>
-      <c r="C38" t="s">
+      <c r="G38" t="s">
         <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
@@ -1720,25 +1720,25 @@
     <row r="40" spans="1:10"/>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
         <v>4</v>
       </c>
-      <c r="B41" t="s">
+      <c r="F41" t="s">
         <v>5</v>
       </c>
-      <c r="C41" t="s">
+      <c r="G41" t="s">
         <v>6</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" t="s">
-        <v>10</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
@@ -1822,25 +1822,25 @@
     <row r="45" spans="1:10"/>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" t="s">
         <v>4</v>
       </c>
-      <c r="B46" t="s">
+      <c r="F46" t="s">
         <v>5</v>
       </c>
-      <c r="C46" t="s">
+      <c r="G46" t="s">
         <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" t="s">
-        <v>10</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
@@ -1901,25 +1901,25 @@
     <row r="49" spans="1:10"/>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
         <v>4</v>
       </c>
-      <c r="B50" t="s">
+      <c r="F50" t="s">
         <v>5</v>
       </c>
-      <c r="C50" t="s">
+      <c r="G50" t="s">
         <v>6</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" t="s">
-        <v>10</v>
       </c>
       <c r="H50" t="s">
         <v>11</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
@@ -1957,25 +1957,25 @@
     <row r="52" spans="1:10"/>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
         <v>4</v>
       </c>
-      <c r="B53" t="s">
+      <c r="F53" t="s">
         <v>5</v>
       </c>
-      <c r="C53" t="s">
+      <c r="G53" t="s">
         <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" t="s">
-        <v>10</v>
       </c>
       <c r="H53" t="s">
         <v>11</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
@@ -2082,25 +2082,25 @@
     <row r="58" spans="1:10"/>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
         <v>4</v>
       </c>
-      <c r="B59" t="s">
+      <c r="F59" t="s">
         <v>5</v>
       </c>
-      <c r="C59" t="s">
+      <c r="G59" t="s">
         <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" t="s">
-        <v>10</v>
       </c>
       <c r="H59" t="s">
         <v>11</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
@@ -2230,25 +2230,25 @@
     <row r="65" spans="1:10"/>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
         <v>4</v>
       </c>
-      <c r="B66" t="s">
+      <c r="F66" t="s">
         <v>5</v>
       </c>
-      <c r="C66" t="s">
+      <c r="G66" t="s">
         <v>6</v>
-      </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" t="s">
-        <v>10</v>
       </c>
       <c r="H66" t="s">
         <v>11</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
         <v>70</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
@@ -2401,25 +2401,25 @@
     <row r="73" spans="1:10"/>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
         <v>4</v>
       </c>
-      <c r="B74" t="s">
+      <c r="F74" t="s">
         <v>5</v>
       </c>
-      <c r="C74" t="s">
+      <c r="G74" t="s">
         <v>6</v>
-      </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" t="s">
-        <v>10</v>
       </c>
       <c r="H74" t="s">
         <v>11</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
@@ -2457,25 +2457,25 @@
     <row r="76" spans="1:10"/>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
         <v>4</v>
       </c>
-      <c r="B77" t="s">
+      <c r="F77" t="s">
         <v>5</v>
       </c>
-      <c r="C77" t="s">
+      <c r="G77" t="s">
         <v>6</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" t="s">
-        <v>10</v>
       </c>
       <c r="H77" t="s">
         <v>11</v>
@@ -2489,7 +2489,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
         <v>80</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -2536,25 +2536,25 @@
     <row r="80" spans="1:10"/>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
         <v>4</v>
       </c>
-      <c r="B81" t="s">
+      <c r="F81" t="s">
         <v>5</v>
       </c>
-      <c r="C81" t="s">
+      <c r="G81" t="s">
         <v>6</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" t="s">
-        <v>10</v>
       </c>
       <c r="H81" t="s">
         <v>11</v>
@@ -2568,19 +2568,19 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
         <v>841596</v>
       </c>
       <c r="D82" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
         <v>46</v>
@@ -2592,25 +2592,25 @@
     <row r="83" spans="1:10"/>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
         <v>4</v>
       </c>
-      <c r="B84" t="s">
+      <c r="F84" t="s">
         <v>5</v>
       </c>
-      <c r="C84" t="s">
+      <c r="G84" t="s">
         <v>6</v>
-      </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" t="s">
-        <v>10</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>83</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
         <v>83</v>
@@ -2671,25 +2671,25 @@
     <row r="87" spans="1:10"/>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
         <v>4</v>
       </c>
-      <c r="B88" t="s">
+      <c r="F88" t="s">
         <v>5</v>
       </c>
-      <c r="C88" t="s">
+      <c r="G88" t="s">
         <v>6</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" t="s">
-        <v>10</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
@@ -2703,25 +2703,25 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
         <v>4</v>
       </c>
-      <c r="B89" t="s">
+      <c r="F89" t="s">
         <v>5</v>
       </c>
-      <c r="C89" t="s">
+      <c r="G89" t="s">
         <v>6</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2745,25 +2745,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -2860,25 +2860,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -3071,25 +3071,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -3186,25 +3186,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -3218,7 +3218,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -3269,25 +3269,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -3313,7 +3313,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>21</v>
@@ -3352,25 +3352,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -3449,25 +3449,25 @@
     <row r="4" spans="1:10"/>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -3609,7 +3609,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -3692,25 +3692,25 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -3820,7 +3820,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -3884,7 +3884,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -3949,25 +3949,25 @@
     <row r="9" spans="1:10"/>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
         <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -3981,7 +3981,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -4013,7 +4013,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -4046,25 +4046,25 @@
     <row r="13" spans="1:10"/>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
+      <c r="G14" t="s">
         <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>32</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>32</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
@@ -4206,7 +4206,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -4302,7 +4302,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
@@ -4367,25 +4367,25 @@
     <row r="24" spans="1:10"/>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" t="s">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
         <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" t="s">
-        <v>10</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -4496,25 +4496,25 @@
     <row r="29" spans="1:10"/>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" t="s">
+      <c r="F30" t="s">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G30" t="s">
         <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" t="s">
-        <v>10</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
@@ -4561,25 +4561,25 @@
     <row r="32" spans="1:10"/>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" t="s">
+      <c r="F33" t="s">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
+      <c r="G33" t="s">
         <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>10</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>48</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>48</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>48</v>
@@ -4690,25 +4690,25 @@
     <row r="37" spans="1:10"/>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
         <v>4</v>
       </c>
-      <c r="B38" t="s">
+      <c r="F38" t="s">
         <v>5</v>
       </c>
-      <c r="C38" t="s">
+      <c r="G38" t="s">
         <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" t="s">
-        <v>10</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>52</v>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>52</v>
@@ -4787,25 +4787,25 @@
     <row r="41" spans="1:10"/>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
         <v>4</v>
       </c>
-      <c r="B42" t="s">
+      <c r="F42" t="s">
         <v>5</v>
       </c>
-      <c r="C42" t="s">
+      <c r="G42" t="s">
         <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" t="s">
-        <v>10</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>55</v>

--- a/hdcntfunc.xlsx
+++ b/hdcntfunc.xlsx
@@ -1,29 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KojoDecisio/projects/pycascades_2018/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="16240" yWindow="740" windowWidth="28560" windowHeight="13400" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Exceptions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Headcount Summary Sorted" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Accounting" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Engineering" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Gotham City" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="HSES" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Procurement" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Project Controls" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Project Management" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Quality" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Exceptions" sheetId="1" r:id="rId1"/>
+    <sheet name="Headcount Summary Sorted" sheetId="2" r:id="rId2"/>
+    <sheet name="Accounting" sheetId="3" r:id="rId3"/>
+    <sheet name="Engineering" sheetId="4" r:id="rId4"/>
+    <sheet name="Gotham City" sheetId="5" r:id="rId5"/>
+    <sheet name="HR" sheetId="6" r:id="rId6"/>
+    <sheet name="Project Comptroller" sheetId="7" r:id="rId7"/>
+    <sheet name="Project Management" sheetId="8" r:id="rId8"/>
+    <sheet name="Purchasing" sheetId="9" r:id="rId9"/>
+    <sheet name="Quality" sheetId="10" r:id="rId10"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="87">
   <si>
     <t>division</t>
   </si>
@@ -289,20 +302,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -318,15 +330,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -614,20 +632,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="220" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,14 +667,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>841596</v>
       </c>
       <c r="D2" t="s">
@@ -666,33 +683,27 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>46</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -724,14 +735,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1079484</v>
       </c>
       <c r="D2" t="s">
@@ -740,30 +751,30 @@
       <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>114</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>46</v>
       </c>
-      <c r="H2" t="n">
-        <v>160</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.7125</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.2875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2">
+        <v>160</v>
+      </c>
+      <c r="I2">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1074010</v>
       </c>
       <c r="D3" t="s">
@@ -772,30 +783,30 @@
       <c r="E3" t="s">
         <v>59</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>55</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>105</v>
       </c>
-      <c r="H3" t="n">
-        <v>160</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3">
+        <v>160</v>
+      </c>
+      <c r="I3">
         <v>0.34375</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>0.65625</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1083873</v>
       </c>
       <c r="D4" t="s">
@@ -804,30 +815,30 @@
       <c r="E4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>140</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="H4" t="n">
-        <v>160</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>160</v>
+      </c>
+      <c r="I4">
         <v>0.875</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>849380</v>
       </c>
       <c r="D5" t="s">
@@ -836,42 +847,38 @@
       <c r="E5" t="s">
         <v>59</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>99</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>61</v>
       </c>
-      <c r="H5" t="n">
-        <v>160</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.61875</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.38125</v>
+      <c r="H5">
+        <v>160</v>
+      </c>
+      <c r="I5">
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.38124999999999998</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -903,14 +910,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1100974</v>
       </c>
       <c r="D2" t="s">
@@ -919,21 +926,21 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>157</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1206302</v>
       </c>
       <c r="D3" t="s">
@@ -942,15 +949,14 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>52</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:10"/>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -982,14 +988,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1206301</v>
       </c>
       <c r="D6" t="s">
@@ -998,15 +1004,14 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>21</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:10"/>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1038,14 +1043,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>832272</v>
       </c>
       <c r="D9" t="s">
@@ -1054,21 +1059,21 @@
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>46</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>826693</v>
       </c>
       <c r="D10" t="s">
@@ -1077,21 +1082,21 @@
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>40</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>811216</v>
       </c>
       <c r="D11" t="s">
@@ -1100,21 +1105,21 @@
       <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>11</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>821100</v>
       </c>
       <c r="D12" t="s">
@@ -1123,21 +1128,21 @@
       <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>107</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>815346</v>
       </c>
       <c r="D13" t="s">
@@ -1146,21 +1151,21 @@
       <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>26</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>820596</v>
       </c>
       <c r="D14" t="s">
@@ -1169,21 +1174,21 @@
       <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>89</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1206303</v>
       </c>
       <c r="D15" t="s">
@@ -1192,30 +1197,30 @@
       <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>62</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>98</v>
       </c>
-      <c r="H15" t="n">
-        <v>160</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.3875</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="H15">
+        <v>160</v>
+      </c>
+      <c r="I15">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="J15">
+        <v>0.61250000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1206303</v>
       </c>
       <c r="D16" t="s">
@@ -1224,24 +1229,23 @@
       <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>62</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>98</v>
       </c>
-      <c r="H16" t="n">
-        <v>160</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.3875</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10"/>
-    <row r="18" spans="1:10">
+      <c r="H16">
+        <v>160</v>
+      </c>
+      <c r="I16">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="J16">
+        <v>0.61250000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1273,14 +1277,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>899591</v>
       </c>
       <c r="D19" t="s">
@@ -1289,21 +1293,21 @@
       <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>130</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>825881</v>
       </c>
       <c r="D20" t="s">
@@ -1312,15 +1316,14 @@
       <c r="E20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>92</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:10"/>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1352,14 +1355,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1098762</v>
       </c>
       <c r="D23" t="s">
@@ -1368,21 +1371,21 @@
       <c r="E23" t="s">
         <v>22</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>156</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
         <v>32</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>906780</v>
       </c>
       <c r="D24" t="s">
@@ -1391,21 +1394,21 @@
       <c r="E24" t="s">
         <v>22</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>64</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>820001</v>
       </c>
       <c r="D25" t="s">
@@ -1414,21 +1417,21 @@
       <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>46</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>826917</v>
       </c>
       <c r="D26" t="s">
@@ -1437,21 +1440,21 @@
       <c r="E26" t="s">
         <v>22</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>12</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1101478</v>
       </c>
       <c r="D27" t="s">
@@ -1460,21 +1463,21 @@
       <c r="E27" t="s">
         <v>22</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>3</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>894901</v>
       </c>
       <c r="D28" t="s">
@@ -1483,21 +1486,21 @@
       <c r="E28" t="s">
         <v>22</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>73</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1078455</v>
       </c>
       <c r="D29" t="s">
@@ -1506,21 +1509,21 @@
       <c r="E29" t="s">
         <v>22</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>96</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>830291</v>
       </c>
       <c r="D30" t="s">
@@ -1529,21 +1532,21 @@
       <c r="E30" t="s">
         <v>22</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>159</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1102073</v>
       </c>
       <c r="D31" t="s">
@@ -1552,15 +1555,14 @@
       <c r="E31" t="s">
         <v>22</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>43</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:10"/>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1592,14 +1594,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1099700</v>
       </c>
       <c r="D34" t="s">
@@ -1608,21 +1610,21 @@
       <c r="E34" t="s">
         <v>22</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>79</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1075893</v>
       </c>
       <c r="D35" t="s">
@@ -1631,21 +1633,21 @@
       <c r="E35" t="s">
         <v>22</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>146</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>899913</v>
       </c>
       <c r="D36" t="s">
@@ -1654,15 +1656,14 @@
       <c r="E36" t="s">
         <v>22</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>130</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:10"/>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1694,14 +1695,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>46</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1063013</v>
       </c>
       <c r="D39" t="s">
@@ -1710,15 +1711,14 @@
       <c r="E39" t="s">
         <v>22</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>97</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:10"/>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1750,14 +1750,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
         <v>48</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1081500</v>
       </c>
       <c r="D42" t="s">
@@ -1766,21 +1766,21 @@
       <c r="E42" t="s">
         <v>22</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>120</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1090593</v>
       </c>
       <c r="D43" t="s">
@@ -1789,21 +1789,21 @@
       <c r="E43" t="s">
         <v>22</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>72</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>48</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>831075</v>
       </c>
       <c r="D44" t="s">
@@ -1812,15 +1812,14 @@
       <c r="E44" t="s">
         <v>22</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>37</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:10"/>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -1852,14 +1851,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>811272</v>
       </c>
       <c r="D47" t="s">
@@ -1868,21 +1867,21 @@
       <c r="E47" t="s">
         <v>22</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>93</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1106301</v>
       </c>
       <c r="D48" t="s">
@@ -1891,15 +1890,14 @@
       <c r="E48" t="s">
         <v>22</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>61</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:10"/>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -1931,14 +1929,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>849758</v>
       </c>
       <c r="D51" t="s">
@@ -1947,15 +1945,14 @@
       <c r="E51" t="s">
         <v>22</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>116</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:10"/>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -1987,14 +1984,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>1079484</v>
       </c>
       <c r="D54" t="s">
@@ -2003,21 +2000,21 @@
       <c r="E54" t="s">
         <v>59</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>114</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>57</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>1074010</v>
       </c>
       <c r="D55" t="s">
@@ -2026,21 +2023,21 @@
       <c r="E55" t="s">
         <v>59</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>55</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>1083873</v>
       </c>
       <c r="D56" t="s">
@@ -2049,21 +2046,21 @@
       <c r="E56" t="s">
         <v>59</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>140</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>849380</v>
       </c>
       <c r="D57" t="s">
@@ -2072,15 +2069,14 @@
       <c r="E57" t="s">
         <v>59</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>99</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:10"/>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -2112,14 +2108,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>801836</v>
       </c>
       <c r="D60" t="s">
@@ -2128,21 +2124,21 @@
       <c r="E60" t="s">
         <v>65</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>49</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>63</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>801717</v>
       </c>
       <c r="D61" t="s">
@@ -2151,21 +2147,21 @@
       <c r="E61" t="s">
         <v>65</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>158</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>810425</v>
       </c>
       <c r="D62" t="s">
@@ -2174,21 +2170,21 @@
       <c r="E62" t="s">
         <v>65</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>84</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>806974</v>
       </c>
       <c r="D63" t="s">
@@ -2197,21 +2193,21 @@
       <c r="E63" t="s">
         <v>65</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>34</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>807275</v>
       </c>
       <c r="D64" t="s">
@@ -2220,15 +2216,14 @@
       <c r="E64" t="s">
         <v>65</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>90</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:10"/>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -2260,14 +2255,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>1099812</v>
       </c>
       <c r="D67" t="s">
@@ -2276,21 +2271,21 @@
       <c r="E67" t="s">
         <v>22</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>123</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>7</v>
       </c>
       <c r="B68" t="s">
         <v>70</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>1098279</v>
       </c>
       <c r="D68" t="s">
@@ -2299,21 +2294,21 @@
       <c r="E68" t="s">
         <v>22</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>8</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>826924</v>
       </c>
       <c r="D69" t="s">
@@ -2322,21 +2317,21 @@
       <c r="E69" t="s">
         <v>22</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>112</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>849079</v>
       </c>
       <c r="D70" t="s">
@@ -2345,21 +2340,21 @@
       <c r="E70" t="s">
         <v>22</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>144</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>897869</v>
       </c>
       <c r="D71" t="s">
@@ -2368,21 +2363,21 @@
       <c r="E71" t="s">
         <v>22</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>128</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>7</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>806771</v>
       </c>
       <c r="D72" t="s">
@@ -2391,15 +2386,14 @@
       <c r="E72" t="s">
         <v>22</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>121</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:10"/>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -2431,14 +2425,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>7</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>897932</v>
       </c>
       <c r="D75" t="s">
@@ -2447,15 +2441,14 @@
       <c r="E75" t="s">
         <v>79</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>51</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:10"/>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -2487,14 +2480,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>7</v>
       </c>
       <c r="B78" t="s">
         <v>80</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>810761</v>
       </c>
       <c r="D78" t="s">
@@ -2503,21 +2496,21 @@
       <c r="E78" t="s">
         <v>65</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>38</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>806092</v>
       </c>
       <c r="D79" t="s">
@@ -2526,15 +2519,14 @@
       <c r="E79" t="s">
         <v>65</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>46</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="1:10"/>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -2566,14 +2558,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>7</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>841596</v>
       </c>
       <c r="D82" t="s">
@@ -2582,15 +2574,14 @@
       <c r="E82" t="s">
         <v>10</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>46</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:10"/>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -2622,14 +2613,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>83</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>814863</v>
       </c>
       <c r="D85" t="s">
@@ -2638,21 +2629,21 @@
       <c r="E85" t="s">
         <v>85</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>60</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
       <c r="B86" t="s">
         <v>83</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>820239</v>
       </c>
       <c r="D86" t="s">
@@ -2661,15 +2652,14 @@
       <c r="E86" t="s">
         <v>85</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>46</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:10"/>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -2701,7 +2691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -2725,25 +2715,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2775,14 +2759,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>814863</v>
       </c>
       <c r="D2" t="s">
@@ -2791,30 +2775,30 @@
       <c r="E2" t="s">
         <v>85</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>60</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>100</v>
       </c>
-      <c r="H2" t="n">
-        <v>160</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>160</v>
+      </c>
+      <c r="I2">
         <v>0.375</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>0.625</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>820239</v>
       </c>
       <c r="D3" t="s">
@@ -2823,42 +2807,45 @@
       <c r="E3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>46</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>114</v>
       </c>
-      <c r="H3" t="n">
-        <v>160</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2875</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7125</v>
+      <c r="H3">
+        <v>160</v>
+      </c>
+      <c r="I3">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.71250000000000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="260" zoomScaleNormal="260" zoomScalePageLayoutView="260" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2890,14 +2877,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>801836</v>
       </c>
       <c r="D2" t="s">
@@ -2906,30 +2893,30 @@
       <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>49</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>111</v>
       </c>
-      <c r="H2" t="n">
-        <v>160</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.30625</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.69375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2">
+        <v>160</v>
+      </c>
+      <c r="I2">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.69374999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>801717</v>
       </c>
       <c r="D3" t="s">
@@ -2938,30 +2925,30 @@
       <c r="E3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>158</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>160</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9875</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3">
+        <v>160</v>
+      </c>
+      <c r="I3">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="J3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>810425</v>
       </c>
       <c r="D4" t="s">
@@ -2970,30 +2957,30 @@
       <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>84</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>76</v>
       </c>
-      <c r="H4" t="n">
-        <v>160</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.525</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4">
+        <v>160</v>
+      </c>
+      <c r="I4">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J4">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>806974</v>
       </c>
       <c r="D5" t="s">
@@ -3002,30 +2989,30 @@
       <c r="E5" t="s">
         <v>65</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>34</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>126</v>
       </c>
-      <c r="H5" t="n">
-        <v>160</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.2125</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="H5">
+        <v>160</v>
+      </c>
+      <c r="I5">
+        <v>0.21249999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>807275</v>
       </c>
       <c r="D6" t="s">
@@ -3034,42 +3021,36 @@
       <c r="E6" t="s">
         <v>65</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>90</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>70</v>
       </c>
-      <c r="H6" t="n">
-        <v>160</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6">
+        <v>160</v>
+      </c>
+      <c r="I6">
         <v>0.5625</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>0.4375</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3101,14 +3082,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>810761</v>
       </c>
       <c r="D2" t="s">
@@ -3117,30 +3098,30 @@
       <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>38</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>122</v>
       </c>
-      <c r="H2" t="n">
-        <v>160</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.2375</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2">
+        <v>160</v>
+      </c>
+      <c r="I2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>806092</v>
       </c>
       <c r="D3" t="s">
@@ -3149,42 +3130,36 @@
       <c r="E3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>46</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>114</v>
       </c>
-      <c r="H3" t="n">
-        <v>160</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.2875</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7125</v>
+      <c r="H3">
+        <v>160</v>
+      </c>
+      <c r="I3">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="J3">
+        <v>0.71250000000000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3216,14 +3191,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>897932</v>
       </c>
       <c r="D2" t="s">
@@ -3232,42 +3207,36 @@
       <c r="E2" t="s">
         <v>79</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>51</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>109</v>
       </c>
-      <c r="H2" t="n">
-        <v>160</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.31875</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.68125</v>
+      <c r="H2">
+        <v>160</v>
+      </c>
+      <c r="I2">
+        <v>0.31874999999999998</v>
+      </c>
+      <c r="J2">
+        <v>0.68125000000000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3299,58 +3268,308 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1206301</v>
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1100974</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="n">
-        <v>21</v>
-      </c>
-      <c r="G2" t="n">
-        <v>139</v>
-      </c>
-      <c r="H2" t="n">
-        <v>160</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.13125</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.86875</v>
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>157</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>160</v>
+      </c>
+      <c r="I2">
+        <v>0.98124999999999996</v>
+      </c>
+      <c r="J2">
+        <v>1.8749999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1206302</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <v>108</v>
+      </c>
+      <c r="H3">
+        <v>160</v>
+      </c>
+      <c r="I3">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6">
+        <v>1099812</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>123</v>
+      </c>
+      <c r="G6">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <v>160</v>
+      </c>
+      <c r="I6">
+        <v>0.76875000000000004</v>
+      </c>
+      <c r="J6">
+        <v>0.23125000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <v>1098279</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>152</v>
+      </c>
+      <c r="H7">
+        <v>160</v>
+      </c>
+      <c r="I7">
+        <v>0.05</v>
+      </c>
+      <c r="J7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>826924</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>112</v>
+      </c>
+      <c r="G8">
+        <v>48</v>
+      </c>
+      <c r="H8">
+        <v>160</v>
+      </c>
+      <c r="I8">
+        <v>0.7</v>
+      </c>
+      <c r="J8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>849079</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>144</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9">
+        <v>160</v>
+      </c>
+      <c r="I9">
+        <v>0.9</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10">
+        <v>897869</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>128</v>
+      </c>
+      <c r="G10">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <v>160</v>
+      </c>
+      <c r="I10">
+        <v>0.8</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>806771</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>121</v>
+      </c>
+      <c r="G11">
+        <v>39</v>
+      </c>
+      <c r="H11">
+        <v>160</v>
+      </c>
+      <c r="I11">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="J11">
+        <v>0.24374999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3382,315 +3601,1140 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>832272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>46</v>
+      </c>
+      <c r="G2">
+        <v>114</v>
+      </c>
+      <c r="H2">
+        <v>160</v>
+      </c>
+      <c r="I2">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="J2">
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>826693</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>120</v>
+      </c>
+      <c r="H3">
+        <v>160</v>
+      </c>
+      <c r="I3">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>811216</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>149</v>
+      </c>
+      <c r="H4">
+        <v>160</v>
+      </c>
+      <c r="I4">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.93125000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>821100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>107</v>
+      </c>
+      <c r="G5">
+        <v>53</v>
+      </c>
+      <c r="H5">
+        <v>160</v>
+      </c>
+      <c r="I5">
+        <v>0.66874999999999996</v>
+      </c>
+      <c r="J5">
+        <v>0.33124999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>815346</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>134</v>
+      </c>
+      <c r="H6">
+        <v>160</v>
+      </c>
+      <c r="I6">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.83750000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>820596</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>89</v>
+      </c>
+      <c r="G7">
+        <v>71</v>
+      </c>
+      <c r="H7">
+        <v>160</v>
+      </c>
+      <c r="I7">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.44374999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>1206303</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>62</v>
+      </c>
+      <c r="G8">
+        <v>98</v>
+      </c>
+      <c r="H8">
+        <v>160</v>
+      </c>
+      <c r="I8">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.61250000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>899591</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>130</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>160</v>
+      </c>
+      <c r="I11">
+        <v>0.8125</v>
+      </c>
+      <c r="J11">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>825881</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>92</v>
+      </c>
+      <c r="G12">
+        <v>68</v>
+      </c>
+      <c r="H12">
+        <v>160</v>
+      </c>
+      <c r="I12">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="J12">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>1098762</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>156</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>160</v>
+      </c>
+      <c r="I15">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>906780</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>64</v>
+      </c>
+      <c r="G16">
+        <v>96</v>
+      </c>
+      <c r="H16">
+        <v>160</v>
+      </c>
+      <c r="I16">
+        <v>0.4</v>
+      </c>
+      <c r="J16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>820001</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>46</v>
+      </c>
+      <c r="G17">
+        <v>114</v>
+      </c>
+      <c r="H17">
+        <v>160</v>
+      </c>
+      <c r="I17">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="J17">
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>826917</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>148</v>
+      </c>
+      <c r="H18">
+        <v>160</v>
+      </c>
+      <c r="I18">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19">
+        <v>1101478</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>157</v>
+      </c>
+      <c r="H19">
+        <v>160</v>
+      </c>
+      <c r="I19">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.98124999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>894901</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>73</v>
+      </c>
+      <c r="G20">
+        <v>87</v>
+      </c>
+      <c r="H20">
+        <v>160</v>
+      </c>
+      <c r="I20">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="J20">
+        <v>0.54374999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>1078455</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>96</v>
+      </c>
+      <c r="G21">
+        <v>64</v>
+      </c>
+      <c r="H21">
+        <v>160</v>
+      </c>
+      <c r="I21">
+        <v>0.6</v>
+      </c>
+      <c r="J21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>830291</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>159</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>160</v>
+      </c>
+      <c r="I22">
+        <v>0.99375000000000002</v>
+      </c>
+      <c r="J22">
+        <v>6.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>1102073</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>43</v>
+      </c>
+      <c r="G23">
+        <v>117</v>
+      </c>
+      <c r="H23">
+        <v>160</v>
+      </c>
+      <c r="I23">
+        <v>0.26874999999999999</v>
+      </c>
+      <c r="J23">
+        <v>0.73124999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26">
+        <v>1099700</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>79</v>
+      </c>
+      <c r="G26">
+        <v>81</v>
+      </c>
+      <c r="H26">
+        <v>160</v>
+      </c>
+      <c r="I26">
+        <v>0.49375000000000002</v>
+      </c>
+      <c r="J26">
+        <v>0.50624999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>1075893</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27">
+        <v>146</v>
+      </c>
+      <c r="G27">
         <v>14</v>
       </c>
-      <c r="C2" t="n">
-        <v>1100974</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="n">
-        <v>157</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H27">
+        <v>160</v>
+      </c>
+      <c r="I27">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="J27">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>899913</v>
+      </c>
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>130</v>
+      </c>
+      <c r="G28">
+        <v>30</v>
+      </c>
+      <c r="H28">
+        <v>160</v>
+      </c>
+      <c r="I28">
+        <v>0.8125</v>
+      </c>
+      <c r="J28">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>160</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.98125</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.01875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1206302</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
+        <v>1063013</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31">
+        <v>97</v>
+      </c>
+      <c r="G31">
+        <v>63</v>
+      </c>
+      <c r="H31">
+        <v>160</v>
+      </c>
+      <c r="I31">
+        <v>0.60624999999999996</v>
+      </c>
+      <c r="J31">
+        <v>0.39374999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>1081500</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>120</v>
+      </c>
+      <c r="G34">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>160</v>
+      </c>
+      <c r="I34">
+        <v>0.75</v>
+      </c>
+      <c r="J34">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>1090593</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>72</v>
+      </c>
+      <c r="G35">
+        <v>88</v>
+      </c>
+      <c r="H35">
+        <v>160</v>
+      </c>
+      <c r="I35">
+        <v>0.45</v>
+      </c>
+      <c r="J35">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>831075</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36">
+        <v>37</v>
+      </c>
+      <c r="G36">
+        <v>123</v>
+      </c>
+      <c r="H36">
+        <v>160</v>
+      </c>
+      <c r="I36">
+        <v>0.23125000000000001</v>
+      </c>
+      <c r="J36">
+        <v>0.76875000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="n">
-        <v>108</v>
-      </c>
-      <c r="H3" t="n">
-        <v>160</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.325</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10"/>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="C39">
+        <v>811272</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39">
+        <v>93</v>
+      </c>
+      <c r="G39">
+        <v>67</v>
+      </c>
+      <c r="H39">
+        <v>160</v>
+      </c>
+      <c r="I39">
+        <v>0.58125000000000004</v>
+      </c>
+      <c r="J39">
+        <v>0.41875000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>1106301</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40">
+        <v>61</v>
+      </c>
+      <c r="G40">
+        <v>99</v>
+      </c>
+      <c r="H40">
+        <v>160</v>
+      </c>
+      <c r="I40">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="J40">
+        <v>0.61875000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B42" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C42" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D42" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E42" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F42" t="s">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G42" t="s">
         <v>6</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H42" t="s">
         <v>11</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I42" t="s">
         <v>12</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1099812</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="n">
-        <v>123</v>
-      </c>
-      <c r="G6" t="n">
-        <v>37</v>
-      </c>
-      <c r="H6" t="n">
-        <v>160</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.76875</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.23125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1098279</v>
-      </c>
-      <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>152</v>
-      </c>
-      <c r="H7" t="n">
-        <v>160</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="n">
-        <v>826924</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="n">
-        <v>112</v>
-      </c>
-      <c r="G8" t="n">
-        <v>48</v>
-      </c>
-      <c r="H8" t="n">
-        <v>160</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="n">
-        <v>849079</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="n">
-        <v>144</v>
-      </c>
-      <c r="G9" t="n">
-        <v>16</v>
-      </c>
-      <c r="H9" t="n">
-        <v>160</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="n">
-        <v>897869</v>
-      </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="n">
-        <v>128</v>
-      </c>
-      <c r="G10" t="n">
-        <v>32</v>
-      </c>
-      <c r="H10" t="n">
-        <v>160</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="n">
-        <v>806771</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="n">
-        <v>121</v>
-      </c>
-      <c r="G11" t="n">
-        <v>39</v>
-      </c>
-      <c r="H11" t="n">
-        <v>160</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.75625</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.24375</v>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>849758</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43">
+        <v>116</v>
+      </c>
+      <c r="G43">
+        <v>44</v>
+      </c>
+      <c r="H43">
+        <v>160</v>
+      </c>
+      <c r="I43">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="J43">
+        <v>0.27500000000000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3722,1134 +4766,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="n">
-        <v>832272</v>
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1206301</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="n">
-        <v>46</v>
-      </c>
-      <c r="G2" t="n">
-        <v>114</v>
-      </c>
-      <c r="H2" t="n">
-        <v>160</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.2875</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="n">
-        <v>826693</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="n">
-        <v>40</v>
-      </c>
-      <c r="G3" t="n">
-        <v>120</v>
-      </c>
-      <c r="H3" t="n">
-        <v>160</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="n">
-        <v>811216</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G4" t="n">
-        <v>149</v>
-      </c>
-      <c r="H4" t="n">
-        <v>160</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.06875000000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.93125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="n">
-        <v>821100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="n">
-        <v>107</v>
-      </c>
-      <c r="G5" t="n">
-        <v>53</v>
-      </c>
-      <c r="H5" t="n">
-        <v>160</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.66875</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.33125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="n">
-        <v>815346</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="n">
-        <v>26</v>
-      </c>
-      <c r="G6" t="n">
-        <v>134</v>
-      </c>
-      <c r="H6" t="n">
-        <v>160</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.1625</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="n">
-        <v>820596</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="n">
-        <v>89</v>
-      </c>
-      <c r="G7" t="n">
-        <v>71</v>
-      </c>
-      <c r="H7" t="n">
-        <v>160</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.55625</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.44375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1206303</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="n">
-        <v>62</v>
-      </c>
-      <c r="G8" t="n">
-        <v>98</v>
-      </c>
-      <c r="H8" t="n">
-        <v>160</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.3875</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10"/>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="n">
-        <v>899591</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="n">
-        <v>130</v>
-      </c>
-      <c r="G11" t="n">
-        <v>30</v>
-      </c>
-      <c r="H11" t="n">
-        <v>160</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="n">
-        <v>825881</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="n">
-        <v>92</v>
-      </c>
-      <c r="G12" t="n">
-        <v>68</v>
-      </c>
-      <c r="H12" t="n">
-        <v>160</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.575</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10"/>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1098762</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="n">
-        <v>156</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>160</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="n">
-        <v>906780</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="n">
-        <v>64</v>
-      </c>
-      <c r="G16" t="n">
-        <v>96</v>
-      </c>
-      <c r="H16" t="n">
-        <v>160</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="n">
-        <v>820001</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="n">
-        <v>46</v>
-      </c>
-      <c r="G17" t="n">
-        <v>114</v>
-      </c>
-      <c r="H17" t="n">
-        <v>160</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.2875</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.7125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="n">
-        <v>826917</v>
-      </c>
-      <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" t="n">
-        <v>12</v>
-      </c>
-      <c r="G18" t="n">
-        <v>148</v>
-      </c>
-      <c r="H18" t="n">
-        <v>160</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.925</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1101478</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>157</v>
-      </c>
-      <c r="H19" t="n">
-        <v>160</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.01875</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.98125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="n">
-        <v>894901</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="n">
-        <v>73</v>
-      </c>
-      <c r="G20" t="n">
-        <v>87</v>
-      </c>
-      <c r="H20" t="n">
-        <v>160</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.45625</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.54375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1078455</v>
-      </c>
-      <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="n">
-        <v>96</v>
-      </c>
-      <c r="G21" t="n">
-        <v>64</v>
-      </c>
-      <c r="H21" t="n">
-        <v>160</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="n">
-        <v>830291</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="n">
-        <v>159</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>160</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.99375</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.00625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1102073</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="n">
-        <v>43</v>
-      </c>
-      <c r="G23" t="n">
-        <v>117</v>
-      </c>
-      <c r="H23" t="n">
-        <v>160</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.26875</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.73125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10"/>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
-        <v>12</v>
-      </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1099700</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="n">
-        <v>79</v>
-      </c>
-      <c r="G26" t="n">
-        <v>81</v>
-      </c>
-      <c r="H26" t="n">
-        <v>160</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.49375</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.50625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1075893</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="n">
-        <v>146</v>
-      </c>
-      <c r="G27" t="n">
-        <v>14</v>
-      </c>
-      <c r="H27" t="n">
-        <v>160</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.9125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="n">
-        <v>899913</v>
-      </c>
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="n">
-        <v>130</v>
-      </c>
-      <c r="G28" t="n">
-        <v>30</v>
-      </c>
-      <c r="H28" t="n">
-        <v>160</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10"/>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1063013</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" t="n">
-        <v>97</v>
-      </c>
-      <c r="G31" t="n">
-        <v>63</v>
-      </c>
-      <c r="H31" t="n">
-        <v>160</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.60625</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.39375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10"/>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1081500</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" t="n">
-        <v>120</v>
-      </c>
-      <c r="G34" t="n">
-        <v>40</v>
-      </c>
-      <c r="H34" t="n">
-        <v>160</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1090593</v>
-      </c>
-      <c r="D35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" t="n">
-        <v>72</v>
-      </c>
-      <c r="G35" t="n">
-        <v>88</v>
-      </c>
-      <c r="H35" t="n">
-        <v>160</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" t="n">
-        <v>831075</v>
-      </c>
-      <c r="D36" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="n">
-        <v>37</v>
-      </c>
-      <c r="G36" t="n">
-        <v>123</v>
-      </c>
-      <c r="H36" t="n">
-        <v>160</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.23125</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.76875</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10"/>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" t="n">
-        <v>811272</v>
-      </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" t="n">
-        <v>93</v>
-      </c>
-      <c r="G39" t="n">
-        <v>67</v>
-      </c>
-      <c r="H39" t="n">
-        <v>160</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.58125</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.41875</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1106301</v>
-      </c>
-      <c r="D40" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" t="n">
-        <v>61</v>
-      </c>
-      <c r="G40" t="n">
-        <v>99</v>
-      </c>
-      <c r="H40" t="n">
-        <v>160</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.38125</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.61875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10"/>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
-      </c>
-      <c r="I42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" t="n">
-        <v>849758</v>
-      </c>
-      <c r="D43" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" t="n">
-        <v>116</v>
-      </c>
-      <c r="G43" t="n">
-        <v>44</v>
-      </c>
-      <c r="H43" t="n">
-        <v>160</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.725</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.275</v>
+      <c r="G2">
+        <v>139</v>
+      </c>
+      <c r="H2">
+        <v>160</v>
+      </c>
+      <c r="I2">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="J2">
+        <v>0.86875000000000002</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>